--- a/data/raw_data/metadata_V1.1.xlsx
+++ b/data/raw_data/metadata_V1.1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -841,81 +841,81 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TYCHO-ALL-1924/2017-SV_DF01</t>
+          <t>WHO/EMRO-PAK-2013-Y01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TYCHO</t>
+          <t>WHO/EMRO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1924/2017</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tycho for dengue fever</t>
+          <t>Pakistan Weekly Epidemiological Bulletin</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.tycho.pitt.edu/search/</t>
+          <t>https://www.emro.who.int/pak/information-resources/disease-early-warning-system-and-response-weekly-bulletins.html</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>condition=dengue, countries=all, none other specified</t>
+          <t>WHO EMRO &gt; Pakistan &gt; Information resources &gt; Weekly Epidemiological bulletin Disease early warning system and response in Pakistan</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MOH-ARG-2019/2021-Y01</t>
+          <t>TYCHO-ALL-1924/2017-SV_DF01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>TYCHO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>ALL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2019/2021</t>
+          <t>1924/2017</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Argentina epidemiological bulletin</t>
+          <t>Tycho for dengue fever</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://bancos.salud.gob.ar/bancos/materiales-para-equipos-de-salud/</t>
+          <t>https://www.tycho.pitt.edu/search/</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>dengue&gt;epidemiological bulletins&gt;download relevant 2019,2020,2021 csv files summarising information in each pdf</t>
+          <t>condition=dengue, countries=all, none other specified</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MOH-AUS-1991/2023-Y01</t>
+          <t>MOH-ARG-2019/2021-Y01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -925,34 +925,34 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1991/2023</t>
+          <t>2019/2021</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Australia National Notifiable Disease Surveillance System</t>
+          <t>Argentina epidemiological bulletin</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://nindss.health.gov.au/pbi-dashboard/</t>
+          <t>https://bancos.salud.gob.ar/bancos/materiales-para-equipos-de-salud/</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>dengue&gt;epidemiological bulletins&gt;download relevant 2019,2020,2021 csv files summarising information in each pdf</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MOH-BGD-2000/2021-Y01</t>
+          <t>MOH-AUS-1991/2023-Y01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -962,34 +962,34 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2000/2021</t>
+          <t>1991/2023</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bangladesh dengue surveillance report</t>
+          <t>Australia National Notifiable Disease Surveillance System</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://iedcr.gov.bd/</t>
+          <t>https://nindss.health.gov.au/pbi-dashboard/</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Surveillance&gt;denguye surveillance&gt;reports</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MOH-BTN-2020/2022-Y01</t>
+          <t>MOH-BGD-2000/2021-Y01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -999,34 +999,34 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2020/2022</t>
+          <t>2000/2021</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bhutan annual health bulletin</t>
+          <t>Bangladesh dengue surveillance report</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.moh.gov.bt/wp-content/uploads/ict-files/2017/06/health-bulletin-Website_Final.pdf; https://www.moh.gov.bt/about/program-profiles/national-suicide-prevention-program/plans-orders-activities/reports__trashed/annual-health-bulletin/</t>
+          <t>https://iedcr.gov.bd/</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>p. 13 Figure 8; p. 10 Figure 10</t>
+          <t>Surveillance&gt;denguye surveillance&gt;reports</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MOH-BOL-2005/2009-Y01</t>
+          <t>MOH-BTN-2020/2022-Y01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1036,34 +1036,34 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2005/2009</t>
+          <t>2020/2022</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Bolivia National Health Information System - Epidemiological Surveillance (Sistema Nacional de Información en Salud - Vigilancia Epidemiológica)</t>
+          <t>Bhutan annual health bulletin</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://snis.minsalud.gob.bo/publicaciones/category/4-boletines</t>
+          <t>https://www.moh.gov.bt/wp-content/uploads/ict-files/2017/06/health-bulletin-Website_Final.pdf; https://www.moh.gov.bt/about/program-profiles/national-suicide-prevention-program/plans-orders-activities/reports__trashed/annual-health-bulletin/</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Publications&gt;newsletters&gt;choose year&gt;V.Epidemiologica&gt;discharge</t>
+          <t>p. 13 Figure 8; p. 10 Figure 10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MOH-BRN-2004/2017-Y01</t>
+          <t>MOH-BOL-2005/2009-Y01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1073,34 +1073,34 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Brunei Darussalam</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2004/2017</t>
+          <t>2005/2009</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Brunei Health Information Booklet</t>
+          <t>Bolivia National Health Information System - Epidemiological Surveillance (Sistema Nacional de Información en Salud - Vigilancia Epidemiológica)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.moh.gov.bn/SitePages/Health%20Information%20Booklet.aspx</t>
+          <t>https://snis.minsalud.gob.bo/publicaciones/category/4-boletines</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>"Notifiable diseases"</t>
+          <t>Publications&gt;newsletters&gt;choose year&gt;V.Epidemiologica&gt;discharge</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MOH-COL-2005/2012-Y01</t>
+          <t>MOH-BRN-2004/2017-Y01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1110,34 +1110,34 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Brunei Darussalam</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2005/2012</t>
+          <t>2004/2017</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Colombia biweekly epi bulletin</t>
+          <t>Brunei Health Information Booklet</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>http://www.ins.gov.co/Paginas/Inicio.aspx</t>
+          <t>https://www.moh.gov.bn/SitePages/Health%20Information%20Booklet.aspx</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Technical scientific publications (scroll down on page)&gt;Biweekly national epidemiological bulletin (IQEN). "Are you looking for information on disease of interest in public health?" (search bar, not the top search bar, midway down page)&gt;dengue&gt;epidemiological bulletins</t>
+          <t>"Notifiable diseases"</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MOH-COL-2007/2022-Y02</t>
+          <t>MOH-COL-2005/2012-Y01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1152,29 +1152,29 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2007/2022</t>
+          <t>2005/2012</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Colombia MoH Surveillance data (SIVIGILA)</t>
+          <t>Colombia biweekly epi bulletin</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://portalsivigila.ins.gov.co/Paginas/Buscador.aspx#</t>
+          <t>http://www.ins.gov.co/Paginas/Inicio.aspx</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>data for 2007-2017 : publication &gt; routine surveillance &gt; Consulta especial Enfermedades Transmitidas por Vectores; data for 2018-2022: microdata &gt; select dengue &gt; input email</t>
+          <t>Technical scientific publications (scroll down on page)&gt;Biweekly national epidemiological bulletin (IQEN). "Are you looking for information on disease of interest in public health?" (search bar, not the top search bar, midway down page)&gt;dengue&gt;epidemiological bulletins</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MOH-DOM-2007/2013-W01</t>
+          <t>MOH-COL-2007/2022-Y02</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1184,34 +1184,34 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2007/2013</t>
+          <t>2007/2022</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Dominican Republic epidemiological bulletin</t>
+          <t>Colombia MoH Surveillance data (SIVIGILA)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://digepisalud.gob.do/documentos-epidemiologicos/</t>
+          <t>https://portalsivigila.ins.gov.co/Paginas/Buscador.aspx#</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Documents&gt;epi bulletins&gt;weekly bulletins&gt;download zip file</t>
+          <t>data for 2007-2017 : publication &gt; routine surveillance &gt; Consulta especial Enfermedades Transmitidas por Vectores; data for 2018-2022: microdata &gt; select dengue &gt; input email</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MOH-DOM-2007/2013-Y01</t>
+          <t>MOH-DOM-2007/2013-W01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1248,7 +1248,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MOH-ECU-2013-Y01</t>
+          <t>MOH-DOM-2007/2013-Y01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1258,34 +1258,34 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2007/2013</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ecuador Boletín epidemiológico de Dengue</t>
+          <t>Dominican Republic epidemiological bulletin</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.salud.gob.ec/</t>
+          <t>https://digepisalud.gob.do/documentos-epidemiologicos/</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Search bar&gt; Boletín epidemiológico de Dengue&gt;search through pages and click 'print' under each webpage.</t>
+          <t>Documents&gt;epi bulletins&gt;weekly bulletins&gt;download zip file</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MOH-FJI-2012/2013-Y01</t>
+          <t>MOH-ECU-2013-Y01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1295,34 +1295,34 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2012/2013</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fiji Dengue outbreak situation report</t>
+          <t>Ecuador Boletín epidemiológico de Dengue</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Reliefweb search (https://reliefweb.int/updates?advanced-search=%28PC17.PC67.PC90.PC94.PC108.PC132.PC151.PC157.PC167.PC171.PC176.PC178.PC183.PC185.PC189.PC204.PC215.PC232.PC233.PC239.PC249.PC252%29_%28DT4642%29_%28T4595%29_%28F10%29_%28DA20100101-20191231%29&amp;search=dengue)</t>
+          <t>https://www.salud.gob.ec/</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Search bar&gt; Boletín epidemiológico de Dengue&gt;search through pages and click 'print' under each webpage.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MOH-PYF-2013/2016-Y01</t>
+          <t>MOH-FJI-2012/2013-Y01</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1332,22 +1332,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>French Polynesia</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2013/2016</t>
+          <t>2012/2013</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>French Polynesia Dengue outbreak situation report</t>
+          <t>Fiji Dengue outbreak situation report</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.pphsn.net/wp-content/uploads/2018/03/surv-PF-sem16-2016.pdf</t>
+          <t>Reliefweb search (https://reliefweb.int/updates?advanced-search=%28PC17.PC67.PC90.PC94.PC108.PC132.PC151.PC157.PC167.PC171.PC176.PC178.PC183.PC185.PC189.PC204.PC215.PC232.PC233.PC239.PC249.PC252%29_%28DT4642%29_%28T4595%29_%28F10%29_%28DA20100101-20191231%29&amp;search=dengue)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1359,7 +1359,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MOH-GTM-2007/2012-Y01</t>
+          <t>MOH-PYF-2013/2016-Y01</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1369,34 +1369,34 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>French Polynesia</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2007/2012</t>
+          <t>2013/2016</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Guatemala Indicadores basicos de salud</t>
+          <t>French Polynesia Dengue outbreak situation report</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>http://epidemiologia.mspas.gob.gt/</t>
+          <t>https://www.pphsn.net/wp-content/uploads/2018/03/surv-PF-sem16-2016.pdf</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Information&gt;Vital statistics&gt;Reports 1999-2020&gt; download each file and search within; Information&gt;Vital statistics&gt;Indicators&gt; download each file and search within</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MOH-GTM-2017/2021-Y02</t>
+          <t>MOH-GTM-2007/2012-Y01</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1411,29 +1411,29 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2017/2021</t>
+          <t>2007/2012</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Guatemala Situacion epidemiologica de Dengue, Chikungunya y Zika</t>
+          <t>Guatemala Indicadores basicos de salud</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://epidemiologia.mspas.gob.gt/informacion/vigilancia-epidemiologica/salas-situacionales</t>
+          <t>http://epidemiologia.mspas.gob.gt/</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>situational rooms, arboviruses, download each epidemological annual summary</t>
+          <t>Information&gt;Vital statistics&gt;Reports 1999-2020&gt; download each file and search within; Information&gt;Vital statistics&gt;Indicators&gt; download each file and search within</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MOH-HKG-1994/2023-Y01</t>
+          <t>MOH-GTM-2017/2021-Y02</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1443,34 +1443,34 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1994/2023</t>
+          <t>2017/2021</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Hong Kong Number of notifiable infectious diseases by month</t>
+          <t>Guatemala Situacion epidemiologica de Dengue, Chikungunya y Zika</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.chp.gov.hk/en/static/24012.html</t>
+          <t>https://epidemiologia.mspas.gob.gt/informacion/vigilancia-epidemiologica/salas-situacionales</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Home &gt; Statistics &gt; Statistics on Communicable Diseases &gt; Notifiable Infectious Diseases</t>
+          <t>situational rooms, arboviruses, download each epidemological annual summary</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MOH-IND-2015/2022-Y01</t>
+          <t>MOH-HKG-1994/2023-Y01</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1480,34 +1480,34 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2015/2022</t>
+          <t>1994/2023</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>DENGUE/DHF SITUATION IN INDIA</t>
+          <t>Hong Kong Number of notifiable infectious diseases by month</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://ncvbdc.mohfw.gov.in/index4.php?lang=1&amp;level=0&amp;linkid=431&amp;lid=3715</t>
+          <t>https://www.chp.gov.hk/en/static/24012.html</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Home &gt; Statistics &gt; Statistics on Communicable Diseases &gt; Notifiable Infectious Diseases</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MOH-IDN-2005/2021-Y01</t>
+          <t>MOH-IND-2015/2022-Y01</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1517,34 +1517,34 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2005/2021</t>
+          <t>2015/2022</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Indonesia Annual health profile</t>
+          <t>DENGUE/DHF SITUATION IN INDIA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.kemkes.go.id/folder/view/01/structure-publikasi-pusdatin-profil-kesehatan.html (or google with "Profil Kesehatan Indonesia 2004"); https://www.kemkes.go.id/</t>
+          <t>https://ncvbdc.mohfw.gov.in/index4.php?lang=1&amp;level=0&amp;linkid=431&amp;lid=3715</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Appendix Table 65a and 65b (2020, 2021); table 3.22 (2005-2009); Download&gt;data publication&gt;data and information centre &gt; health profile indoensia 2021</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MOH-JPN-2014/2019-Y01</t>
+          <t>MOH-IDN-2005/2021-Y01</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1554,34 +1554,34 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2014/2019</t>
+          <t>2005/2021</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Japan MoH Surveillance data table</t>
+          <t>Indonesia Annual health profile</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www-niid-go-jp.translate.goog/niid/ja/allarticles/surveillance/2270-idwr/nenpou/11637-idwr-nenpo2021.html?_x_tr_sl=auto&amp;_x_tr_tl=ko&amp;_x_tr_hl=en-US&amp;_x_tr_pto=wapp</t>
+          <t>https://www.kemkes.go.id/folder/view/01/structure-publikasi-pusdatin-profil-kesehatan.html (or google with "Profil Kesehatan Indonesia 2004"); https://www.kemkes.go.id/</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>annual report - Table 2-1</t>
+          <t>Appendix Table 65a and 65b (2020, 2021); table 3.22 (2005-2009); Download&gt;data publication&gt;data and information centre &gt; health profile indoensia 2021</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MOH-JPN-2014/2019-Y02</t>
+          <t>MOH-JPN-2014/2019-Y01</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1601,24 +1601,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Monthly number of notified dengue fever and dengue hemorrhagic fever cases, Jan 2014-Dec 2019, Japan</t>
+          <t>Japan MoH Surveillance data table</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.niid.go.jp/niid/en/basic-science/865-iasr/9916-484te.html</t>
+          <t>https://www-niid-go-jp.translate.goog/niid/ja/allarticles/surveillance/2270-idwr/nenpou/11637-idwr-nenpo2021.html?_x_tr_sl=auto&amp;_x_tr_tl=ko&amp;_x_tr_hl=en-US&amp;_x_tr_pto=wapp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Figure 1</t>
+          <t>annual report - Table 2-1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MOH-MYS-2009/2017-Y01</t>
+          <t>MOH-JPN-2014/2019-Y02</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1628,34 +1628,34 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2009/2017</t>
+          <t>2014/2019</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Malaysia PETUNJUK KESIHATANHEALTH INDICATORS</t>
+          <t>Monthly number of notified dengue fever and dengue hemorrhagic fever cases, Jan 2014-Dec 2019, Japan</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.moh.gov.my/</t>
+          <t>https://www.niid.go.jp/niid/en/basic-science/865-iasr/9916-484te.html</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Publications&gt;main MoH publications&gt;petunjuk keishatan 2009-2018</t>
+          <t>Figure 1</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MOH-MDV-2012/2020-Y01</t>
+          <t>MOH-MYS-2009/2017-Y01</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1665,34 +1665,34 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2012/2020</t>
+          <t>2009/2017</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>The Maldives Health Statistics</t>
+          <t>Malaysia PETUNJUK KESIHATANHEALTH INDICATORS</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://health.gov.mv/en/publications?category=14&amp;page=2</t>
+          <t>https://www.moh.gov.my/</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Ministry of health &gt; publications &gt; statistics&gt;Maldives Health Statistics</t>
+          <t>Publications&gt;main MoH publications&gt;petunjuk keishatan 2009-2018</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MOH-MEX-2003/2013-W01</t>
+          <t>MOH-MDV-2012/2020-Y01</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1702,34 +1702,34 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Maldives</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2003/2013</t>
+          <t>2012/2020</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Mexico national epidemiological surveillance system (sistema nacional de vigilancia epidemiologica)</t>
+          <t>The Maldives Health Statistics</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.gob.mx/salud/archivo/documentos?order=DESC&amp;page=236&amp;tab=</t>
+          <t>https://health.gov.mv/en/publications?category=14&amp;page=2</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Health sec&gt;file, archive?documents</t>
+          <t>Ministry of health &gt; publications &gt; statistics&gt;Maldives Health Statistics</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MOH-MMR-1970/2018-Y01</t>
+          <t>MOH-MEX-2003/2013-W01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1739,34 +1739,34 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1970/2018</t>
+          <t>2003/2013</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Myanmar National Strateginc Plan for Dengue Prevention and Control 2016-2020</t>
+          <t>Mexico national epidemiological surveillance system (sistema nacional de vigilancia epidemiologica)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://mohs.gov.mm/su/ldnw4897LD</t>
+          <t>https://www.gob.mx/salud/archivo/documentos?order=DESC&amp;page=236&amp;tab=</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>p. 17, p. 21</t>
+          <t>Health sec&gt;file, archive?documents</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MOH-NPL-2006/2014-Y03</t>
+          <t>MOH-MMR-1970/2018-Y01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1776,34 +1776,34 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2006/2014</t>
+          <t>1970/2018</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Nepal Annual Report Department of Health Services</t>
+          <t>Myanmar National Strateginc Plan for Dengue Prevention and Control 2016-2020</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>http://dohs.gov.np/wp-content/uploads/2016/06/Annual_Report_FY_2071_72.pdf</t>
+          <t>https://mohs.gov.mm/su/ldnw4897LD</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>p.127</t>
+          <t>p. 17, p. 21</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MOH-NPL-2016/2019-Y01</t>
+          <t>MOH-NPL-2006/2014-Y03</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1818,29 +1818,29 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2016/2019</t>
+          <t>2006/2014</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Nepal EWARS weekly bulletin</t>
+          <t>Nepal Annual Report Department of Health Services</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>http://www.edcd.gov.np/</t>
+          <t>http://dohs.gov.np/wp-content/uploads/2016/06/Annual_Report_FY_2071_72.pdf</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Resources&gt;newsletters &amp; bulletins? Go through each tab and download</t>
+          <t>p.127</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MOH-NPL-2021-Y02</t>
+          <t>MOH-NPL-2016/2019-Y01</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1855,29 +1855,29 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2016/2019</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Nepal EWARS annual report</t>
+          <t>Nepal EWARS weekly bulletin</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://edcd.gov.np/resource-detail/ewars-annual-report-2021</t>
+          <t>http://www.edcd.gov.np/</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Figure 6, 10, 14, 18, 26, 30 for adm1 level weekly</t>
+          <t>Resources&gt;newsletters &amp; bulletins? Go through each tab and download</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MOH-PLW-2018/2019-Y01</t>
+          <t>MOH-NPL-2021-Y02</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1887,34 +1887,34 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Palau</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2018/2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Palau Dengue outbreak situation report</t>
+          <t>Nepal EWARS annual report</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://reliefweb.int/updates?advanced-search=%28PC17.PC67.PC90.PC94.PC108.PC132.PC151.PC157.PC167.PC171.PC176.PC178.PC183.PC185.PC189.PC204.PC215.PC232.PC233.PC239.PC249.PC252%29_%28DT4642%29_%28T4595%29_%28F10%29_%28DA20100101-20191231%29&amp;search=dengue</t>
+          <t>https://edcd.gov.np/resource-detail/ewars-annual-report-2021</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Reliefweb search</t>
+          <t>Figure 6, 10, 14, 18, 26, 30 for adm1 level weekly</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MOH-PAN-2010/2012-Y01</t>
+          <t>MOH-PAK-2019/2021-W01</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1924,34 +1924,34 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2010/2012</t>
+          <t>2019/2021</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Panama epidemiology weekly newsletter</t>
+          <t>Pakistan FELTP Weekly Epidemiological Report</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.minsa.gob.pa/</t>
+          <t>https://reliefweb.int/report/pakistan/pakistan-weekly-field-epidemiology-report-volume-3-issue-34-aug-15-21-2021</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Health information&gt;reports, publications and newsletters&gt;epidemiology?weekly newsletters (2004-2012)</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MOH-PER-2007/2013-W01</t>
+          <t>MOH-PAK-2021/2022-W02</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1961,34 +1961,34 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2007/2013</t>
+          <t>2021/2022</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Peru Sala de Situacion de Salud (Health situation room)</t>
+          <t>Pakistan IDSR Weekly bulletin</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.dge.gob.pe/portalnuevo/informacion-publica/situacion-del-dengue-en-el-peru/</t>
+          <t>https://www.nih.org.pk/idsr-weekly-bulletin</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>MoH&gt; National Center for Epidemiology Disease preventon &amp; Control&gt;public information&gt;dengue&gt;weekly situation rooms&gt;download each weekly update for each year</t>
+          <t>Home &gt; Knowledge hub &gt; IDSR weekly bulletin</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MOH-PER-2007/2013-Y01</t>
+          <t>MOH-PLW-2018/2019-Y01</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1998,34 +1998,34 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Palau</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2007/2013</t>
+          <t>2018/2019</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Peru Sala de Situacion de Salud (Health situation room)</t>
+          <t>Palau Dengue outbreak situation report</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.dge.gob.pe/portalnuevo/informacion-publica/situacion-del-dengue-en-el-peru/</t>
+          <t>https://reliefweb.int/updates?advanced-search=%28PC17.PC67.PC90.PC94.PC108.PC132.PC151.PC157.PC167.PC171.PC176.PC178.PC183.PC185.PC189.PC204.PC215.PC232.PC233.PC239.PC249.PC252%29_%28DT4642%29_%28T4595%29_%28F10%29_%28DA20100101-20191231%29&amp;search=dengue</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>MoH&gt; National Center for Epidemiology Disease preventon &amp; Control&gt;public information&gt;dengue&gt;weekly situation rooms&gt;download each weekly update for each year</t>
+          <t>Reliefweb search</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MOH-PHL-2000/2018-Y01</t>
+          <t>MOH-PAN-2010/2012-Y01</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2035,34 +2035,34 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2000/2018</t>
+          <t>2010/2012</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Philippines FIELD HEALTH SERVICE INFORMATION SYSTEM ANNUAL REPORT</t>
+          <t>Panama epidemiology weekly newsletter</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://doh.gov.ph/</t>
+          <t>https://www.minsa.gob.pa/</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Publications&gt;serials&gt;FHSIS annual reports</t>
+          <t>Health information&gt;reports, publications and newsletters&gt;epidemiology?weekly newsletters (2004-2012)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MOH-PHL-2010/2019-Y03</t>
+          <t>MOH-PER-2007/2013-W01</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2072,34 +2072,34 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2010/2019</t>
+          <t>2007/2013</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Philippines Statistics Authority</t>
+          <t>Peru Sala de Situacion de Salud (Health situation room)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://psa.gov.ph/environment/peenra/releases/165164</t>
+          <t>https://www.dge.gob.pe/portalnuevo/informacion-publica/situacion-del-dengue-en-el-peru/</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>MoH&gt; National Center for Epidemiology Disease preventon &amp; Control&gt;public information&gt;dengue&gt;weekly situation rooms&gt;download each weekly update for each year</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MOH-PHL-2019/2021-Y02</t>
+          <t>MOH-PER-2007/2013-Y01</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2109,34 +2109,34 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2019/2021</t>
+          <t>2007/2013</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Annual report - Philippine Integrated Disease Surveillance and Response</t>
+          <t>Peru Sala de Situacion de Salud (Health situation room)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://doh.gov.ph/statistics</t>
+          <t>https://www.dge.gob.pe/portalnuevo/informacion-publica/situacion-del-dengue-en-el-peru/</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Statistics &gt; Disease Surveillance &gt; EPIDEMIC-PRONE DISEASE CASE SURVEILLANCE ANNUAL REPORT; Statistics &gt; Disease Surveillance &gt; EPIDEMIC-PRONE DISEASE CASE SURVEILLANCE ANNUAL REPORT (Table 4.2.1.)</t>
+          <t>MoH&gt; National Center for Epidemiology Disease preventon &amp; Control&gt;public information&gt;dengue&gt;weekly situation rooms&gt;download each weekly update for each year</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MOH-SAU-2006/2021-Y02</t>
+          <t>MOH-PHL-2000/2018-Y01</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2146,34 +2146,34 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2006/2021</t>
+          <t>2000/2018</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Saudi Arabia Annual statistical year book</t>
+          <t>Philippines FIELD HEALTH SERVICE INFORMATION SYSTEM ANNUAL REPORT</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.moh.gov.sa/en/Ministry/Statistics/book/Pages/default.aspx</t>
+          <t>https://doh.gov.ph/</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Table 3-2 and 3-3 for year 2014-2021; table 10.1d and figure 10.1d for year 2012-2013; table 1-1 for year 2006-2011; NA</t>
+          <t>Publications&gt;serials&gt;FHSIS annual reports</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MOH-SAU-2018/2023-Y01</t>
+          <t>MOH-PHL-2010/2019-Y03</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2183,34 +2183,34 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2018/2023</t>
+          <t>2010/2019</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Saudi Arabia MoH Monthly epidemiological report</t>
+          <t>Philippines Statistics Authority</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://saudifetp.org/epi-report/</t>
+          <t>https://psa.gov.ph/environment/peenra/releases/165164</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>"Diseases by Regions, Kingdom of Saudi Arabia" or "Time trend comparison by Epidemiological weeks for current and previous year"; NA</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MOH-SGP-2000/2011-Y01</t>
+          <t>MOH-PHL-2019/2021-Y02</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2220,34 +2220,34 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2000/2011</t>
+          <t>2019/2021</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Communicable diseases surveillance in singapore</t>
+          <t>Annual report - Philippine Integrated Disease Surveillance and Response</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>http://www.moh.gov.sg</t>
+          <t>https://doh.gov.ph/statistics</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>resources&amp;stats&gt;search for dengue&gt;dengue epidemiological update; resources&amp;stats&gt;search for communicable disease surveillance (2005 onwards)</t>
+          <t>Statistics &gt; Disease Surveillance &gt; EPIDEMIC-PRONE DISEASE CASE SURVEILLANCE ANNUAL REPORT; Statistics &gt; Disease Surveillance &gt; EPIDEMIC-PRONE DISEASE CASE SURVEILLANCE ANNUAL REPORT (Table 4.2.1.)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MOH-SGP-2012/2022-Y02</t>
+          <t>MOH-SAU-2006/2021-Y02</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2257,34 +2257,34 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2012/2022</t>
+          <t>2006/2021</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Singapore weekly infectious disease bulletins</t>
+          <t>Saudi Arabia Annual statistical year book</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>http://www.moh.gov.sg</t>
+          <t>https://www.moh.gov.sa/en/Ministry/Statistics/book/Pages/default.aspx</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>resources&amp;stats&gt;infectious disease statistics&gt;2021&gt;weekly infectious disease bulletins</t>
+          <t>Table 3-2 and 3-3 for year 2014-2021; table 10.1d and figure 10.1d for year 2012-2013; table 1-1 for year 2006-2011; NA</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MOH-SLB-2016-Y01</t>
+          <t>MOH-SAU-2018/2023-Y01</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2294,34 +2294,34 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018/2023</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Solomon Islands Dengue outbreak situation report</t>
+          <t>Saudi Arabia MoH Monthly epidemiological report</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Reliefweb search (https://reliefweb.int/updates?advanced-search=%28PC17.PC67.PC90.PC94.PC108.PC132.PC151.PC157.PC167.PC171.PC176.PC178.PC183.PC185.PC189.PC204.PC215.PC232.PC233.PC239.PC249.PC252%29_%28DT4642%29_%28T4595%29_%28F10%29_%28DA20100101-20191231%29&amp;search=dengue)</t>
+          <t>https://saudifetp.org/epi-report/</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Table 2</t>
+          <t>"Diseases by Regions, Kingdom of Saudi Arabia" or "Time trend comparison by Epidemiological weeks for current and previous year"; NA</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MOH-LKA-2010/2022-Y01</t>
+          <t>MOH-SGP-2000/2011-Y01</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2331,34 +2331,34 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2010/2022</t>
+          <t>2000/2011</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sri Lanka surveillance data</t>
+          <t>Communicable diseases surveillance in singapore</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.epid.gov.lk/web/index.php?option=com_casesanddeaths&amp;Itemid=448&amp;lang=en</t>
+          <t>http://www.moh.gov.sg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>resources&amp;stats&gt;search for dengue&gt;dengue epidemiological update; resources&amp;stats&gt;search for communicable disease surveillance (2005 onwards)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MOH-TWN-1998/2023-Y01</t>
+          <t>MOH-SGP-2012/2022-Y02</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2368,34 +2368,34 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1998/2023</t>
+          <t>2012/2022</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Taiwan Surveillance data</t>
+          <t>Singapore weekly infectious disease bulletins</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://data.cdc.gov.tw/en/dataset/dengue-daily-determined-cases-1998-moi ; download data here: https://od.cdc.gov.tw/eic/Dengue_Daily_EN.csv</t>
+          <t>http://www.moh.gov.sg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>resources&amp;stats&gt;infectious disease statistics&gt;2021&gt;weekly infectious disease bulletins</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MOH-THA-2003/2022-Y01</t>
+          <t>MOH-SLB-2016-Y01</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2405,34 +2405,34 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2003/2022</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Thailand surveillance data</t>
+          <t>Solomon Islands Dengue outbreak situation report</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>http://doe.moph.go.th/surdata/disease.php?dcontent=situation&amp;ds=66</t>
+          <t>Reliefweb search (https://reliefweb.int/updates?advanced-search=%28PC17.PC67.PC90.PC94.PC108.PC132.PC151.PC157.PC167.PC171.PC176.PC178.PC183.PC185.PC189.PC204.PC215.PC232.PC233.PC239.PC249.PC252%29_%28DT4642%29_%28T4595%29_%28F10%29_%28DA20100101-20191231%29&amp;search=dengue)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Number of illnesses - deaths Monthly::.download file.</t>
+          <t>Table 2</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MOH-TON-2015-Y01</t>
+          <t>MOH-LKA-2010/2022-Y01</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2442,22 +2442,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Tonga</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2010/2022</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Tonga Dengue outbreak situation report</t>
+          <t>Sri Lanka surveillance data</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Reliefweb search (https://reliefweb.int/updates?advanced-search=%28PC17.PC67.PC90.PC94.PC108.PC132.PC151.PC157.PC167.PC171.PC176.PC178.PC183.PC185.PC189.PC204.PC215.PC232.PC233.PC239.PC249.PC252%29_%28DT4642%29_%28T4595%29_%28F10%29_%28DA20100101-20191231%29&amp;search=dengue)</t>
+          <t>https://www.epid.gov.lk/web/index.php?option=com_casesanddeaths&amp;Itemid=448&amp;lang=en</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MOH-VUT-2018/2021-Y01</t>
+          <t>MOH-TWN-1998/2023-Y01</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2479,22 +2479,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Vanuatu</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2018/2021</t>
+          <t>1998/2023</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Vanuatu Dengue outbreak situation report</t>
+          <t>Taiwan Surveillance data</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Reliefweb search (https://reliefweb.int/updates?advanced-search=%28PC17.PC67.PC90.PC94.PC108.PC132.PC151.PC157.PC167.PC171.PC176.PC178.PC183.PC185.PC189.PC204.PC215.PC232.PC233.PC239.PC249.PC252%29_%28DT4642%29_%28T4595%29_%28F10%29_%28DA20100101-20191231%29&amp;search=dengue)</t>
+          <t>https://data.cdc.gov.tw/en/dataset/dengue-daily-determined-cases-1998-moi ; download data here: https://od.cdc.gov.tw/eic/Dengue_Daily_EN.csv</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2506,106 +2506,106 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LITERATURE-ALL-2011/2019-Y01</t>
+          <t>MOH-THA-2003/2022-Y01</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>MOH</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2011/2019</t>
+          <t>2003/2022</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Western Pacific Surveillance and Response Journal</t>
+          <t>Thailand surveillance data</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://ojs.wpro.who.int/ojs/index.php/wpsar/search/index?query=dengue&amp;dateFromYear=&amp;dateFromMonth=&amp;dateFromDay=&amp;dateToYear=&amp;dateToMonth=&amp;dateToDay=&amp;authors=</t>
+          <t>http://doe.moph.go.th/surdata/disease.php?dcontent=situation&amp;ds=66</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>NA; Table 3</t>
+          <t>Number of illnesses - deaths Monthly::.download file.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LITERATURE-BGD-2008/2022-Y01</t>
+          <t>MOH-TON-2015-Y01</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>MOH</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Tonga</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2008/2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
+          <t>Tonga Dengue outbreak situation report</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Reliefweb search (https://reliefweb.int/updates?advanced-search=%28PC17.PC67.PC90.PC94.PC108.PC132.PC151.PC157.PC167.PC171.PC176.PC178.PC183.PC185.PC189.PC204.PC215.PC232.PC233.PC239.PC249.PC252%29_%28DT4642%29_%28T4595%29_%28F10%29_%28DA20100101-20191231%29&amp;search=dengue)</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>NA</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>https://onlinelibrary.wiley.com/doi/full/10.1002/hsr2.1210</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Table 1</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>LITERATURE-BRN-2012/2017-Y01</t>
+          <t>MOH-VUT-2018/2021-Y01</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LITERATURE</t>
+          <t>MOH</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Brunei Darussalam</t>
+          <t>Vanuatu</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2012/2017</t>
+          <t>2018/2021</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Vanuatu Dengue outbreak situation report</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://asean.org/wp-content/uploads/2017/02/19-e-Health-Bulletin-11th-Issue_Final-printing.pdf</t>
+          <t>Reliefweb search (https://reliefweb.int/updates?advanced-search=%28PC17.PC67.PC90.PC94.PC108.PC132.PC151.PC157.PC167.PC171.PC176.PC178.PC183.PC185.PC189.PC204.PC215.PC232.PC233.PC239.PC249.PC252%29_%28DT4642%29_%28T4595%29_%28F10%29_%28DA20100101-20191231%29&amp;search=dengue)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2617,7 +2617,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>LITERATURE-CHN-1990/2019-Y01</t>
+          <t>LITERATURE-ALL-2011/2019-Y01</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2627,34 +2627,34 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>ALL</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1990/2019</t>
+          <t>2011/2019</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Western Pacific Surveillance and Response Journal</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>DOI: 10.1097/MD.0000000000021982; DOI: 10.3389/fcimb.2022.881745; https://rs.yiigle.com/CN112338201407/595121.htm; DOI: 10.1038/s41598-023-28453-y; DOI: 10.1007/s10096-015-2540-5; DOI: 10.3760/cma.j.cn112338-20190715-00523</t>
+          <t>https://ojs.wpro.who.int/ojs/index.php/wpsar/search/index?query=dengue&amp;dateFromYear=&amp;dateFromMonth=&amp;dateFromDay=&amp;dateToYear=&amp;dateToMonth=&amp;dateToDay=&amp;authors=</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Figure 1, Table 1; Figure 2; NA; Table 1</t>
+          <t>NA; Table 3</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>LITERATURE-GRD-2010/2020-Y01</t>
+          <t>LITERATURE-BGD-2008/2022-Y01</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2010/2020</t>
+          <t>2008/2022</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2679,19 +2679,19 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://journals.plos.org/climate/article?id=10.1371/journal.pclm.0000122#sec009</t>
+          <t>https://onlinelibrary.wiley.com/doi/full/10.1002/hsr2.1210</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Supporting information</t>
+          <t>Table 1</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>LITERATURE-IND-1997/2012-Y01</t>
+          <t>LITERATURE-BRN-2012/2017-Y01</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2701,12 +2701,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Brunei Darussalam</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1997/2012</t>
+          <t>2012/2017</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>DOI: 10.1016/j.trstmh.2011.12.007; https://www.researchgate.net/publication/265602757_Need_for_GIS_based_dengue_surveillance_with_Google_internet_real_time_mapping_for_epidemic_control_in_India</t>
+          <t>https://asean.org/wp-content/uploads/2017/02/19-e-Health-Bulletin-11th-Issue_Final-printing.pdf</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>LITERATURE-NPL-2006/2016-Y01</t>
+          <t>LITERATURE-CHN-1990/2019-Y01</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2738,12 +2738,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2006/2016</t>
+          <t>1990/2019</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2753,19 +2753,19 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://ann-clinmicrob.biomedcentral.com/articles/10.1186/s12941-018-0258-9/tables/1</t>
+          <t>DOI: 10.1097/MD.0000000000021982; DOI: 10.3389/fcimb.2022.881745; https://rs.yiigle.com/CN112338201407/595121.htm; DOI: 10.1038/s41598-023-28453-y; DOI: 10.1007/s10096-015-2540-5; DOI: 10.3760/cma.j.cn112338-20190715-00523</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Table 1</t>
+          <t>Figure 1, Table 1; Figure 2; NA; Table 1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>LITERATURE-PICs-1997/2009-Y01</t>
+          <t>LITERATURE-GRD-2010/2020-Y01</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2775,12 +2775,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>PICs</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1997/2009</t>
+          <t>2010/2020</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2790,47 +2790,158 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9151433/</t>
+          <t>https://journals.plos.org/climate/article?id=10.1371/journal.pclm.0000122#sec009</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Figure 4(b)</t>
+          <t>Supporting information</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>LITERATURE-IND-1997/2012-Y01</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>LITERATURE</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1997/2012</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>DOI: 10.1016/j.trstmh.2011.12.007; https://www.researchgate.net/publication/265602757_Need_for_GIS_based_dengue_surveillance_with_Google_internet_real_time_mapping_for_epidemic_control_in_India</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>LITERATURE-NPL-2006/2016-Y01</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>LITERATURE</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2006/2016</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://ann-clinmicrob.biomedcentral.com/articles/10.1186/s12941-018-0258-9/tables/1</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Table 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>LITERATURE-PICs-1997/2009-Y01</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>LITERATURE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PICs</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1997/2009</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9151433/</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Figure 4(b)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
           <t>LITERATURE-TLS-2005/2022-Y01</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>LITERATURE</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Timor-Leste</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>2005/2022</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>https://parasitesandvectors.biomedcentral.com/articles/10.1186/s13071-017-2588-4#MOESM1; https://www.researchgate.net/publication/367224315_Dengue_Fever_Based_on_Epidemiological_Situation_Current_Outbreak_in_Timor-Leste_on_January_2020_Until_February_2022</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>Table S1; Table 1</t>
         </is>
